--- a/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/account_payment_method.xlsx
+++ b/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/account_payment_method.xlsx
@@ -172,18 +172,18 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8:G8"/>
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
